--- a/raw-data-prep/raw_data/Note_sheet_AM.xlsx
+++ b/raw-data-prep/raw_data/Note_sheet_AM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -278,9 +278,6 @@
     <t>Did not wear headphones for full 15 minutes; No suspicions about study</t>
   </si>
   <si>
-    <t>What is study about?: Effect of distraction on video game playing; Anything suspicious?" "maybe we were writing the essay responses to distract the more"; laughed when gave distraction assignment;  Essay review was too much "A normal person isn't that mean"</t>
-  </si>
-  <si>
     <t>Mallory</t>
   </si>
   <si>
@@ -324,13 +321,16 @@
   </si>
   <si>
     <t>Game 1</t>
+  </si>
+  <si>
+    <t>Study about effect of distraction on video game playing. Anything suspicious: maybe we were writing the essay responses to distract the more. laughed when gave distraction assignment. Said essay review was too much. A normal person isn't that mean.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,6 +526,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -560,6 +561,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -735,21 +737,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -769,19 +771,19 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H1" t="s">
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L1" t="s">
         <v>14</v>
@@ -790,10 +792,10 @@
         <v>6</v>
       </c>
       <c r="N1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>41550</v>
       </c>
@@ -834,7 +836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickTop="1">
+    <row r="3" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>41547</v>
       </c>
@@ -875,7 +877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>41541</v>
       </c>
@@ -919,7 +921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>41545</v>
       </c>
@@ -963,7 +965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>41550</v>
       </c>
@@ -1004,7 +1006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>41545</v>
       </c>
@@ -1048,7 +1050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>41541</v>
       </c>
@@ -1089,7 +1091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>41541</v>
       </c>
@@ -1130,7 +1132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>41542</v>
       </c>
@@ -1174,7 +1176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>41542</v>
       </c>
@@ -1215,7 +1217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>41543</v>
       </c>
@@ -1259,7 +1261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickTop="1">
+    <row r="13" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>41543</v>
       </c>
@@ -1300,7 +1302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>41543</v>
       </c>
@@ -1341,7 +1343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>41543</v>
       </c>
@@ -1382,7 +1384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickTop="1">
+    <row r="16" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>41543</v>
       </c>
@@ -1423,7 +1425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>41543</v>
       </c>
@@ -1464,7 +1466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>41544</v>
       </c>
@@ -1508,7 +1510,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>41544</v>
       </c>
@@ -1552,7 +1554,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1596,7 +1598,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>41545</v>
       </c>
@@ -1640,7 +1642,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>41545</v>
       </c>
@@ -1684,7 +1686,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>41546</v>
       </c>
@@ -1728,7 +1730,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>41546</v>
       </c>
@@ -1772,7 +1774,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>41547</v>
       </c>
@@ -1816,7 +1818,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>41548</v>
       </c>
@@ -1857,7 +1859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>41548</v>
       </c>
@@ -1901,7 +1903,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1942,7 +1944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>41548</v>
       </c>
@@ -1986,7 +1988,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>41549</v>
       </c>
@@ -2027,7 +2029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>41549</v>
       </c>
@@ -2068,7 +2070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -2109,7 +2111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>41549</v>
       </c>
@@ -2153,7 +2155,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15.75" thickBot="1">
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>41550</v>
       </c>
@@ -2194,7 +2196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>41550</v>
       </c>
@@ -2235,7 +2237,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15.75" thickTop="1">
+    <row r="36" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>41550</v>
       </c>
@@ -2276,7 +2278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>41550</v>
       </c>
@@ -2317,7 +2319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>41550</v>
       </c>
@@ -2361,7 +2363,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>41551</v>
       </c>
@@ -2402,7 +2404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15.75" thickBot="1">
+    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>41551</v>
       </c>
@@ -2446,7 +2448,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+    <row r="41" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>41551</v>
       </c>
@@ -2487,7 +2489,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15.75" thickTop="1">
+    <row r="42" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>41936</v>
       </c>
@@ -2531,7 +2533,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41936</v>
       </c>
@@ -2575,7 +2577,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>41936</v>
       </c>
@@ -2619,7 +2621,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>41936</v>
       </c>
@@ -2663,7 +2665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>41936</v>
       </c>
@@ -2707,7 +2709,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>41938</v>
       </c>
@@ -2751,7 +2753,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>41938</v>
       </c>
@@ -2795,7 +2797,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>41938</v>
       </c>
@@ -2839,7 +2841,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2880,7 +2882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>41940</v>
       </c>
@@ -2921,7 +2923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>41940</v>
       </c>
@@ -2962,7 +2964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>41940</v>
       </c>
@@ -3006,7 +3008,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>41941</v>
       </c>
@@ -3050,7 +3052,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>41941</v>
       </c>
@@ -3094,7 +3096,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>41941</v>
       </c>
@@ -3138,7 +3140,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>41942</v>
       </c>
@@ -3179,7 +3181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>41942</v>
       </c>
@@ -3223,7 +3225,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>41942</v>
       </c>
@@ -3264,7 +3266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>41942</v>
       </c>
@@ -3308,7 +3310,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>41942</v>
       </c>
@@ -3352,7 +3354,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>41942</v>
       </c>
@@ -3396,7 +3398,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>41943</v>
       </c>
@@ -3440,7 +3442,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>41943</v>
       </c>
@@ -3484,7 +3486,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>41943</v>
       </c>
@@ -3528,7 +3530,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>41943</v>
       </c>
@@ -3572,7 +3574,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>41943</v>
       </c>
@@ -3616,7 +3618,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>41945</v>
       </c>
@@ -3660,7 +3662,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>41945</v>
       </c>
@@ -3701,7 +3703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>41948</v>
       </c>
@@ -3745,7 +3747,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>41948</v>
       </c>
@@ -3786,7 +3788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>41949</v>
       </c>
@@ -3827,7 +3829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>41949</v>
       </c>
@@ -3868,7 +3870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>41949</v>
       </c>
@@ -3912,7 +3914,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>41949</v>
       </c>
@@ -3956,7 +3958,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>41950</v>
       </c>
@@ -4000,7 +4002,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>41950</v>
       </c>
@@ -4044,7 +4046,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>41950</v>
       </c>
@@ -4088,7 +4090,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>41950</v>
       </c>
@@ -4132,7 +4134,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>41950</v>
       </c>
@@ -4176,7 +4178,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>41950</v>
       </c>
@@ -4217,10 +4219,10 @@
         <v>15</v>
       </c>
       <c r="N81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>41952</v>
       </c>
@@ -4228,7 +4230,7 @@
         <v>0.5</v>
       </c>
       <c r="C82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D82">
         <v>137</v>
@@ -4264,7 +4266,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>41952</v>
       </c>
@@ -4305,10 +4307,10 @@
         <v>10</v>
       </c>
       <c r="N83" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>41952</v>
       </c>
@@ -4349,10 +4351,10 @@
         <v>18</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>41954</v>
       </c>
@@ -4393,10 +4395,10 @@
         <v>10</v>
       </c>
       <c r="N85" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>41954</v>
       </c>
@@ -4437,10 +4439,10 @@
         <v>15</v>
       </c>
       <c r="N86" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>41954</v>
       </c>
@@ -4481,7 +4483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>41954</v>
       </c>
@@ -4522,7 +4524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>41955</v>
       </c>
@@ -4530,7 +4532,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C89" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D89">
         <v>143</v>
@@ -4563,10 +4565,10 @@
         <v>15</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>41955</v>
       </c>
@@ -4607,10 +4609,10 @@
         <v>10</v>
       </c>
       <c r="N90" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>41955</v>
       </c>
@@ -4651,7 +4653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>41956</v>
       </c>
@@ -4692,7 +4694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>41956</v>
       </c>
@@ -4733,7 +4735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>41956</v>
       </c>
@@ -4774,10 +4776,10 @@
         <v>15</v>
       </c>
       <c r="N94" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>41956</v>
       </c>
@@ -4785,7 +4787,7 @@
         <v>0.71875</v>
       </c>
       <c r="C95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D95">
         <v>149</v>
@@ -4818,10 +4820,10 @@
         <v>10</v>
       </c>
       <c r="N95" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>41956</v>
       </c>
@@ -4862,10 +4864,10 @@
         <v>10</v>
       </c>
       <c r="N96" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>41959</v>
       </c>
@@ -4873,7 +4875,7 @@
         <v>0.5</v>
       </c>
       <c r="C97" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4883,24 +4885,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw-data-prep/raw_data/Note_sheet_AM.xlsx
+++ b/raw-data-prep/raw_data/Note_sheet_AM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -36,9 +36,6 @@
     <t>RA</t>
   </si>
   <si>
-    <t>Good Session</t>
-  </si>
-  <si>
     <t>Melissa</t>
   </si>
   <si>
@@ -52,15 +49,6 @@
   </si>
   <si>
     <t>Jimmy</t>
-  </si>
-  <si>
-    <t>Game 2</t>
-  </si>
-  <si>
-    <t>Game 4</t>
-  </si>
-  <si>
-    <t>Game 6</t>
   </si>
   <si>
     <t>Maybe</t>
@@ -311,26 +299,38 @@
     <t>He said he realized what was going on after he made the distraction assignment</t>
   </si>
   <si>
-    <t>Game 3</t>
-  </si>
-  <si>
-    <t>Game 5</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Game 1</t>
-  </si>
-  <si>
     <t>Study about effect of distraction on video game playing. Anything suspicious: maybe we were writing the essay responses to distract the more. laughed when gave distraction assignment. Said essay review was too much. A normal person isn't that mean.</t>
+  </si>
+  <si>
+    <t>Game.1</t>
+  </si>
+  <si>
+    <t>Game.2</t>
+  </si>
+  <si>
+    <t>Game.3</t>
+  </si>
+  <si>
+    <t>Game.4</t>
+  </si>
+  <si>
+    <t>Game.5</t>
+  </si>
+  <si>
+    <t>Game.6</t>
+  </si>
+  <si>
+    <t>Good.Session</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,7 +526,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -561,7 +560,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -737,21 +735,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N74" sqref="N74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -771,31 +769,31 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s">
         <v>90</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="K1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L1" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="M1" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="N1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="3">
         <v>41550</v>
       </c>
@@ -803,7 +801,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>37</v>
@@ -833,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickTop="1">
       <c r="A3" s="3">
         <v>41547</v>
       </c>
@@ -844,7 +842,7 @@
         <v>0.71875</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>24</v>
@@ -874,10 +872,10 @@
         <v>87</v>
       </c>
       <c r="M3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="3">
         <v>41541</v>
       </c>
@@ -885,7 +883,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -915,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="3">
         <v>41545</v>
       </c>
@@ -929,7 +927,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>19</v>
@@ -959,13 +957,13 @@
         <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="3">
         <v>41550</v>
       </c>
@@ -973,7 +971,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>39</v>
@@ -1003,10 +1001,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="3">
         <v>41545</v>
       </c>
@@ -1014,7 +1012,7 @@
         <v>0.50208333333333333</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -1044,13 +1042,13 @@
         <v>0</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="3">
         <v>41541</v>
       </c>
@@ -1058,7 +1056,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1088,10 +1086,10 @@
         <v>95</v>
       </c>
       <c r="M8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="3">
         <v>41541</v>
       </c>
@@ -1099,7 +1097,7 @@
         <v>0.75</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1129,10 +1127,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="3">
         <v>41542</v>
       </c>
@@ -1140,7 +1138,7 @@
         <v>0.71875</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -1170,13 +1168,13 @@
         <v>0</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="A11" s="3">
         <v>41542</v>
       </c>
@@ -1184,7 +1182,7 @@
         <v>0.71875</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -1214,18 +1212,18 @@
         <v>100</v>
       </c>
       <c r="M11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="3">
         <v>41543</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>9</v>
@@ -1255,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickTop="1">
       <c r="A13" s="3">
         <v>41543</v>
       </c>
@@ -1269,7 +1267,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>11</v>
@@ -1299,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="A14" s="3">
         <v>41543</v>
       </c>
@@ -1310,7 +1308,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>7</v>
@@ -1340,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="3">
         <v>41543</v>
       </c>
@@ -1351,7 +1349,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -1381,10 +1379,10 @@
         <v>60</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickTop="1">
       <c r="A16" s="3">
         <v>41543</v>
       </c>
@@ -1392,7 +1390,7 @@
         <v>0.6875</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -1422,10 +1420,10 @@
         <v>80</v>
       </c>
       <c r="M16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="3">
         <v>41543</v>
       </c>
@@ -1433,7 +1431,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>12</v>
@@ -1463,10 +1461,10 @@
         <v>91</v>
       </c>
       <c r="M17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="3">
         <v>41544</v>
       </c>
@@ -1474,7 +1472,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D18">
         <v>14</v>
@@ -1504,13 +1502,13 @@
         <v>57</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="3">
         <v>41544</v>
       </c>
@@ -1518,7 +1516,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>13</v>
@@ -1548,21 +1546,21 @@
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B20" s="10">
         <v>0.58333333333333337</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>18</v>
@@ -1592,13 +1590,13 @@
         <v>73</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="3">
         <v>41545</v>
       </c>
@@ -1606,7 +1604,7 @@
         <v>0.5</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D21">
         <v>16</v>
@@ -1636,13 +1634,13 @@
         <v>134</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="3">
         <v>41545</v>
       </c>
@@ -1650,7 +1648,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D22">
         <v>20</v>
@@ -1680,13 +1678,13 @@
         <v>65</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="3">
         <v>41546</v>
       </c>
@@ -1694,7 +1692,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1724,13 +1722,13 @@
         <v>47</v>
       </c>
       <c r="M23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="3">
         <v>41546</v>
       </c>
@@ -1738,7 +1736,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D24">
         <v>21</v>
@@ -1768,13 +1766,13 @@
         <v>0</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="3">
         <v>41547</v>
       </c>
@@ -1782,7 +1780,7 @@
         <v>0.71875</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D25">
         <v>23</v>
@@ -1812,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="3">
         <v>41548</v>
       </c>
@@ -1826,7 +1824,7 @@
         <v>0.75</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1856,10 +1854,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="3">
         <v>41548</v>
       </c>
@@ -1867,7 +1865,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1897,21 +1895,21 @@
         <v>55</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1941,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="3">
         <v>41548</v>
       </c>
@@ -1952,7 +1950,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1982,13 +1980,13 @@
         <v>74</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="3">
         <v>41549</v>
       </c>
@@ -1996,7 +1994,7 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D30">
         <v>31</v>
@@ -2026,10 +2024,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="3">
         <v>41549</v>
       </c>
@@ -2037,7 +2035,7 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31">
         <v>29</v>
@@ -2067,18 +2065,18 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32">
         <v>30</v>
@@ -2108,10 +2106,10 @@
         <v>113</v>
       </c>
       <c r="M32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="3">
         <v>41549</v>
       </c>
@@ -2119,7 +2117,7 @@
         <v>0.71875</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -2149,13 +2147,13 @@
         <v>90</v>
       </c>
       <c r="M33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" thickBot="1">
       <c r="A34" s="3">
         <v>41550</v>
       </c>
@@ -2163,7 +2161,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D34">
         <v>34</v>
@@ -2193,10 +2191,10 @@
         <v>61</v>
       </c>
       <c r="M34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="3">
         <v>41550</v>
       </c>
@@ -2204,7 +2202,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35">
         <v>33</v>
@@ -2234,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickTop="1">
       <c r="A36" s="3">
         <v>41550</v>
       </c>
@@ -2245,7 +2243,7 @@
         <v>0.6875</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D36">
         <v>36</v>
@@ -2275,10 +2273,10 @@
         <v>85</v>
       </c>
       <c r="M36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="3">
         <v>41550</v>
       </c>
@@ -2286,7 +2284,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D37">
         <v>38</v>
@@ -2316,10 +2314,10 @@
         <v>81</v>
       </c>
       <c r="M37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="3">
         <v>41550</v>
       </c>
@@ -2327,7 +2325,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D38">
         <v>40</v>
@@ -2357,13 +2355,13 @@
         <v>68</v>
       </c>
       <c r="M38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="3">
         <v>41551</v>
       </c>
@@ -2371,7 +2369,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39">
         <v>41</v>
@@ -2401,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" thickBot="1">
       <c r="A40" s="3">
         <v>41551</v>
       </c>
@@ -2412,7 +2410,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D40">
         <v>42</v>
@@ -2442,13 +2440,13 @@
         <v>92</v>
       </c>
       <c r="M40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A41" s="3">
         <v>41551</v>
       </c>
@@ -2456,7 +2454,7 @@
         <v>0.625</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41">
         <v>43</v>
@@ -2486,18 +2484,18 @@
         <v>0</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" thickTop="1">
       <c r="A42" s="7">
         <v>41936</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D42">
         <v>96</v>
@@ -2527,13 +2525,13 @@
         <v>73</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="3">
         <v>41936</v>
       </c>
@@ -2541,7 +2539,7 @@
         <v>0.6875</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D43">
         <v>95</v>
@@ -2571,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="3">
         <v>41936</v>
       </c>
@@ -2585,7 +2583,7 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D44">
         <v>98</v>
@@ -2615,13 +2613,13 @@
         <v>71</v>
       </c>
       <c r="M44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="3">
         <v>41936</v>
       </c>
@@ -2629,7 +2627,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D45">
         <v>97</v>
@@ -2659,13 +2657,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="3">
         <v>41936</v>
       </c>
@@ -2673,7 +2671,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D46">
         <v>99</v>
@@ -2703,13 +2701,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="3">
         <v>41938</v>
       </c>
@@ -2717,7 +2715,7 @@
         <v>0.54583333333333328</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D47">
         <v>100</v>
@@ -2747,21 +2745,21 @@
         <v>23</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="3">
         <v>41938</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D48">
         <v>102</v>
@@ -2791,13 +2789,13 @@
         <v>105</v>
       </c>
       <c r="M48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="3">
         <v>41938</v>
       </c>
@@ -2805,7 +2803,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D49">
         <v>101</v>
@@ -2835,21 +2833,21 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B50" s="6">
         <v>0.70833333333333337</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50">
         <v>104</v>
@@ -2879,10 +2877,10 @@
         <v>45</v>
       </c>
       <c r="M50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="3">
         <v>41940</v>
       </c>
@@ -2890,7 +2888,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D51">
         <v>103</v>
@@ -2920,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="3">
         <v>41940</v>
       </c>
@@ -2931,7 +2929,7 @@
         <v>0.75</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D52">
         <v>105</v>
@@ -2961,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="M52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="3">
         <v>41940</v>
       </c>
@@ -2972,7 +2970,7 @@
         <v>0.75</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D53">
         <v>106</v>
@@ -3002,13 +3000,13 @@
         <v>69</v>
       </c>
       <c r="M53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="3">
         <v>41941</v>
       </c>
@@ -3016,7 +3014,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D54">
         <v>107</v>
@@ -3046,13 +3044,13 @@
         <v>0</v>
       </c>
       <c r="M54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="3">
         <v>41941</v>
       </c>
@@ -3060,7 +3058,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55">
         <v>108</v>
@@ -3090,13 +3088,13 @@
         <v>88</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="3">
         <v>41941</v>
       </c>
@@ -3104,7 +3102,7 @@
         <v>0.75</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56">
         <v>109</v>
@@ -3134,13 +3132,13 @@
         <v>0</v>
       </c>
       <c r="M56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="3">
         <v>41942</v>
       </c>
@@ -3148,7 +3146,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D57">
         <v>110</v>
@@ -3178,10 +3176,10 @@
         <v>63</v>
       </c>
       <c r="M57" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="3">
         <v>41942</v>
       </c>
@@ -3189,7 +3187,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D58">
         <v>111</v>
@@ -3219,13 +3217,13 @@
         <v>0</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="3">
         <v>41942</v>
       </c>
@@ -3233,7 +3231,7 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D59">
         <v>112</v>
@@ -3263,10 +3261,10 @@
         <v>118</v>
       </c>
       <c r="M59" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="3">
         <v>41942</v>
       </c>
@@ -3274,7 +3272,7 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D60">
         <v>113</v>
@@ -3304,13 +3302,13 @@
         <v>0</v>
       </c>
       <c r="M60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N60" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="3">
         <v>41942</v>
       </c>
@@ -3318,7 +3316,7 @@
         <v>0.71875</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D61">
         <v>114</v>
@@ -3348,13 +3346,13 @@
         <v>101</v>
       </c>
       <c r="M61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N61" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="3">
         <v>41942</v>
       </c>
@@ -3362,7 +3360,7 @@
         <v>0.71875</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D62">
         <v>115</v>
@@ -3392,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="M62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N62" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="3">
         <v>41943</v>
       </c>
@@ -3406,7 +3404,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D63">
         <v>116</v>
@@ -3436,13 +3434,13 @@
         <v>83</v>
       </c>
       <c r="M63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N63" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="3">
         <v>41943</v>
       </c>
@@ -3450,7 +3448,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C64" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D64">
         <v>119</v>
@@ -3480,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N64" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="3">
         <v>41943</v>
       </c>
@@ -3494,7 +3492,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D65">
         <v>118</v>
@@ -3524,13 +3522,13 @@
         <v>68</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="3">
         <v>41943</v>
       </c>
@@ -3538,7 +3536,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D66" s="9">
         <v>121</v>
@@ -3568,13 +3566,13 @@
         <v>0</v>
       </c>
       <c r="M66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N66" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="3">
         <v>41943</v>
       </c>
@@ -3582,7 +3580,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D67">
         <v>120</v>
@@ -3612,13 +3610,13 @@
         <v>126</v>
       </c>
       <c r="M67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="3">
         <v>41945</v>
       </c>
@@ -3626,7 +3624,7 @@
         <v>0.5</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D68">
         <v>122</v>
@@ -3656,13 +3654,13 @@
         <v>61</v>
       </c>
       <c r="M68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N68" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="3">
         <v>41945</v>
       </c>
@@ -3670,7 +3668,7 @@
         <v>0.5</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D69">
         <v>123</v>
@@ -3700,10 +3698,10 @@
         <v>0</v>
       </c>
       <c r="M69" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="3">
         <v>41948</v>
       </c>
@@ -3711,7 +3709,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D70">
         <v>124</v>
@@ -3741,13 +3739,13 @@
         <v>35</v>
       </c>
       <c r="M70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N70" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="3">
         <v>41948</v>
       </c>
@@ -3755,7 +3753,7 @@
         <v>0.75</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D71">
         <v>125</v>
@@ -3785,10 +3783,10 @@
         <v>0</v>
       </c>
       <c r="M71" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="3">
         <v>41949</v>
       </c>
@@ -3796,7 +3794,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D72">
         <v>126</v>
@@ -3826,10 +3824,10 @@
         <v>68</v>
       </c>
       <c r="M72" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" s="3">
         <v>41949</v>
       </c>
@@ -3837,7 +3835,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D73">
         <v>127</v>
@@ -3867,10 +3865,10 @@
         <v>0</v>
       </c>
       <c r="M73" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" s="3">
         <v>41949</v>
       </c>
@@ -3878,7 +3876,7 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D74">
         <v>128</v>
@@ -3908,13 +3906,13 @@
         <v>86</v>
       </c>
       <c r="M74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N74" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" s="3">
         <v>41949</v>
       </c>
@@ -3922,7 +3920,7 @@
         <v>0.71875</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D75">
         <v>129</v>
@@ -3952,13 +3950,13 @@
         <v>0</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="3">
         <v>41950</v>
       </c>
@@ -3966,7 +3964,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D76">
         <v>130</v>
@@ -3996,13 +3994,13 @@
         <v>53</v>
       </c>
       <c r="M76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N76" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="3">
         <v>41950</v>
       </c>
@@ -4010,7 +4008,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C77" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D77">
         <v>131</v>
@@ -4040,13 +4038,13 @@
         <v>0</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N77" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="3">
         <v>41950</v>
       </c>
@@ -4054,7 +4052,7 @@
         <v>0.6875</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D78">
         <v>132</v>
@@ -4084,13 +4082,13 @@
         <v>55</v>
       </c>
       <c r="M78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N78" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" s="3">
         <v>41950</v>
       </c>
@@ -4098,7 +4096,7 @@
         <v>0.6875</v>
       </c>
       <c r="C79" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D79">
         <v>133</v>
@@ -4128,13 +4126,13 @@
         <v>0</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N79" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="3">
         <v>41950</v>
       </c>
@@ -4142,7 +4140,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C80" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D80">
         <v>135</v>
@@ -4172,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="M80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N80" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="3">
         <v>41950</v>
       </c>
@@ -4186,7 +4184,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D81">
         <v>134</v>
@@ -4216,13 +4214,13 @@
         <v>74</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="3">
         <v>41952</v>
       </c>
@@ -4230,7 +4228,7 @@
         <v>0.5</v>
       </c>
       <c r="C82" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D82">
         <v>137</v>
@@ -4260,13 +4258,13 @@
         <v>0</v>
       </c>
       <c r="M82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N82" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="3">
         <v>41952</v>
       </c>
@@ -4274,7 +4272,7 @@
         <v>0.5</v>
       </c>
       <c r="C83" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D83">
         <v>136</v>
@@ -4304,21 +4302,21 @@
         <v>57</v>
       </c>
       <c r="M83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N83" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="3">
         <v>41952</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D84">
         <v>138</v>
@@ -4348,13 +4346,13 @@
         <v>98</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="3">
         <v>41954</v>
       </c>
@@ -4362,7 +4360,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C85" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D85">
         <v>139</v>
@@ -4392,13 +4390,13 @@
         <v>0</v>
       </c>
       <c r="M85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N85" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="3">
         <v>41954</v>
       </c>
@@ -4406,7 +4404,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D86">
         <v>140</v>
@@ -4436,13 +4434,13 @@
         <v>150</v>
       </c>
       <c r="M86" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N86" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="3">
         <v>41954</v>
       </c>
@@ -4450,7 +4448,7 @@
         <v>0.75</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D87">
         <v>141</v>
@@ -4480,10 +4478,10 @@
         <v>0</v>
       </c>
       <c r="M87" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="3">
         <v>41954</v>
       </c>
@@ -4491,7 +4489,7 @@
         <v>0.75</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D88">
         <v>142</v>
@@ -4521,10 +4519,10 @@
         <v>87</v>
       </c>
       <c r="M88" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="3">
         <v>41955</v>
       </c>
@@ -4532,7 +4530,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C89" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D89">
         <v>143</v>
@@ -4562,13 +4560,13 @@
         <v>0</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="3">
         <v>41955</v>
       </c>
@@ -4576,7 +4574,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D90">
         <v>144</v>
@@ -4606,13 +4604,13 @@
         <v>36</v>
       </c>
       <c r="M90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N90" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="3">
         <v>41955</v>
       </c>
@@ -4620,7 +4618,7 @@
         <v>0.75</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D91">
         <v>145</v>
@@ -4650,10 +4648,10 @@
         <v>0</v>
       </c>
       <c r="M91" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="3">
         <v>41956</v>
       </c>
@@ -4661,7 +4659,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="C92" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D92">
         <v>146</v>
@@ -4691,10 +4689,10 @@
         <v>82</v>
       </c>
       <c r="M92" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="3">
         <v>41956</v>
       </c>
@@ -4702,7 +4700,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D93">
         <v>147</v>
@@ -4732,10 +4730,10 @@
         <v>0</v>
       </c>
       <c r="M93" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="3">
         <v>41956</v>
       </c>
@@ -4743,7 +4741,7 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="C94" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D94">
         <v>148</v>
@@ -4773,13 +4771,13 @@
         <v>65</v>
       </c>
       <c r="M94" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N94" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="3">
         <v>41956</v>
       </c>
@@ -4787,7 +4785,7 @@
         <v>0.71875</v>
       </c>
       <c r="C95" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D95">
         <v>149</v>
@@ -4817,13 +4815,13 @@
         <v>0</v>
       </c>
       <c r="M95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N95" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="3">
         <v>41956</v>
       </c>
@@ -4831,7 +4829,7 @@
         <v>0.71875</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D96">
         <v>150</v>
@@ -4861,13 +4859,13 @@
         <v>173</v>
       </c>
       <c r="M96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N96" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="3">
         <v>41959</v>
       </c>
@@ -4875,7 +4873,7 @@
         <v>0.5</v>
       </c>
       <c r="C97" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4885,24 +4883,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw-data-prep/raw_data/Note_sheet_AM.xlsx
+++ b/raw-data-prep/raw_data/Note_sheet_AM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$97</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="94">
   <si>
     <t>Subject</t>
   </si>
@@ -164,9 +167,6 @@
     <t>Seemed to buy the deception- Good session!</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>I left insult in packet from previous session for essay writing part. Participant definitely saw. I called Joe and moved forward w/ session per instructions. I made up an insult form to use w/ the insult "not well thought out. Needs improvement."</t>
   </si>
   <si>
@@ -299,38 +299,38 @@
     <t>He said he realized what was going on after he made the distraction assignment</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Study about effect of distraction on video game playing. Anything suspicious: maybe we were writing the essay responses to distract the more. laughed when gave distraction assignment. Said essay review was too much. A normal person isn't that mean.</t>
   </si>
   <si>
-    <t>Game.1</t>
-  </si>
-  <si>
-    <t>Game.2</t>
-  </si>
-  <si>
-    <t>Game.3</t>
-  </si>
-  <si>
-    <t>Game.4</t>
-  </si>
-  <si>
-    <t>Game.5</t>
-  </si>
-  <si>
-    <t>Game.6</t>
-  </si>
-  <si>
-    <t>Good.Session</t>
+    <t>Game 2</t>
+  </si>
+  <si>
+    <t>Game 4</t>
+  </si>
+  <si>
+    <t>Game 6</t>
+  </si>
+  <si>
+    <t>Good Session</t>
+  </si>
+  <si>
+    <t>Notes_t</t>
+  </si>
+  <si>
+    <t>Game 1</t>
+  </si>
+  <si>
+    <t>Game 3</t>
+  </si>
+  <si>
+    <t>Game 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,6 +526,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -560,6 +561,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -735,21 +737,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="A1:N1"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -769,31 +771,31 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>90</v>
       </c>
-      <c r="J1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+    </row>
+    <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>41550</v>
       </c>
@@ -834,7 +836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickTop="1">
+    <row r="3" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>41547</v>
       </c>
@@ -875,7 +877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>41541</v>
       </c>
@@ -919,7 +921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>41545</v>
       </c>
@@ -963,7 +965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>41550</v>
       </c>
@@ -1004,7 +1006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>41545</v>
       </c>
@@ -1048,7 +1050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>41541</v>
       </c>
@@ -1089,7 +1091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>41541</v>
       </c>
@@ -1130,7 +1132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>41542</v>
       </c>
@@ -1174,7 +1176,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>41542</v>
       </c>
@@ -1215,7 +1217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>41543</v>
       </c>
@@ -1252,14 +1254,12 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="M12" s="2"/>
       <c r="N12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickTop="1">
+    <row r="13" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>41543</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>41543</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>41543</v>
       </c>
@@ -1378,11 +1378,9 @@
       <c r="L15">
         <v>60</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" thickTop="1">
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>41543</v>
       </c>
@@ -1423,7 +1421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>41543</v>
       </c>
@@ -1464,7 +1462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>41544</v>
       </c>
@@ -1508,7 +1506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>41544</v>
       </c>
@@ -1552,7 +1550,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1596,7 +1594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>41545</v>
       </c>
@@ -1640,7 +1638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>41545</v>
       </c>
@@ -1684,7 +1682,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>41546</v>
       </c>
@@ -1728,7 +1726,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>41546</v>
       </c>
@@ -1772,7 +1770,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>41547</v>
       </c>
@@ -1816,7 +1814,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>41548</v>
       </c>
@@ -1857,7 +1855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>41548</v>
       </c>
@@ -1901,7 +1899,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1942,7 +1940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>41548</v>
       </c>
@@ -1986,7 +1984,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>41549</v>
       </c>
@@ -2027,7 +2025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>41549</v>
       </c>
@@ -2068,7 +2066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -2109,7 +2107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>41549</v>
       </c>
@@ -2153,7 +2151,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15.75" thickBot="1">
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>41550</v>
       </c>
@@ -2194,7 +2192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>41550</v>
       </c>
@@ -2231,11 +2229,9 @@
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" thickTop="1">
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>41550</v>
       </c>
@@ -2276,7 +2272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>41550</v>
       </c>
@@ -2317,7 +2313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>41550</v>
       </c>
@@ -2361,7 +2357,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>41551</v>
       </c>
@@ -2402,7 +2398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15.75" thickBot="1">
+    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>41551</v>
       </c>
@@ -2446,7 +2442,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+    <row r="41" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>41551</v>
       </c>
@@ -2483,11 +2479,9 @@
       <c r="L41">
         <v>0</v>
       </c>
-      <c r="M41" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" thickTop="1">
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>41936</v>
       </c>
@@ -2528,10 +2522,10 @@
         <v>14</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41936</v>
       </c>
@@ -2539,7 +2533,7 @@
         <v>0.6875</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D43">
         <v>95</v>
@@ -2572,10 +2566,10 @@
         <v>9</v>
       </c>
       <c r="N43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>41936</v>
       </c>
@@ -2616,10 +2610,10 @@
         <v>9</v>
       </c>
       <c r="N44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>41936</v>
       </c>
@@ -2627,7 +2621,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45">
         <v>97</v>
@@ -2660,10 +2654,10 @@
         <v>9</v>
       </c>
       <c r="N45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>41936</v>
       </c>
@@ -2704,10 +2698,10 @@
         <v>9</v>
       </c>
       <c r="N46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>41938</v>
       </c>
@@ -2748,10 +2742,10 @@
         <v>11</v>
       </c>
       <c r="N47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>41938</v>
       </c>
@@ -2792,10 +2786,10 @@
         <v>9</v>
       </c>
       <c r="N48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>41938</v>
       </c>
@@ -2803,7 +2797,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D49">
         <v>101</v>
@@ -2836,12 +2830,12 @@
         <v>9</v>
       </c>
       <c r="N49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" t="s">
-        <v>52</v>
       </c>
       <c r="B50" s="6">
         <v>0.70833333333333337</v>
@@ -2880,7 +2874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>41940</v>
       </c>
@@ -2921,7 +2915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>41940</v>
       </c>
@@ -2962,7 +2956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>41940</v>
       </c>
@@ -3003,10 +2997,10 @@
         <v>9</v>
       </c>
       <c r="N53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>41941</v>
       </c>
@@ -3047,10 +3041,10 @@
         <v>9</v>
       </c>
       <c r="N54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>41941</v>
       </c>
@@ -3091,10 +3085,10 @@
         <v>14</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>41941</v>
       </c>
@@ -3135,10 +3129,10 @@
         <v>9</v>
       </c>
       <c r="N56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>41942</v>
       </c>
@@ -3179,7 +3173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>41942</v>
       </c>
@@ -3220,10 +3214,10 @@
         <v>11</v>
       </c>
       <c r="N58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>41942</v>
       </c>
@@ -3264,7 +3258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>41942</v>
       </c>
@@ -3305,10 +3299,10 @@
         <v>9</v>
       </c>
       <c r="N60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>41942</v>
       </c>
@@ -3349,10 +3343,10 @@
         <v>9</v>
       </c>
       <c r="N61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>41942</v>
       </c>
@@ -3393,10 +3387,10 @@
         <v>9</v>
       </c>
       <c r="N62" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>41943</v>
       </c>
@@ -3437,10 +3431,10 @@
         <v>9</v>
       </c>
       <c r="N63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>41943</v>
       </c>
@@ -3448,7 +3442,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D64">
         <v>119</v>
@@ -3481,10 +3475,10 @@
         <v>14</v>
       </c>
       <c r="N64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>41943</v>
       </c>
@@ -3522,13 +3516,13 @@
         <v>68</v>
       </c>
       <c r="M65" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N65" t="s">
         <v>63</v>
       </c>
-      <c r="N65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>41943</v>
       </c>
@@ -3536,7 +3530,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="C66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D66" s="9">
         <v>121</v>
@@ -3569,10 +3563,10 @@
         <v>9</v>
       </c>
       <c r="N66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>41943</v>
       </c>
@@ -3613,10 +3607,10 @@
         <v>9</v>
       </c>
       <c r="N67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>41945</v>
       </c>
@@ -3657,10 +3651,10 @@
         <v>9</v>
       </c>
       <c r="N68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>41945</v>
       </c>
@@ -3701,7 +3695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>41948</v>
       </c>
@@ -3742,10 +3736,10 @@
         <v>9</v>
       </c>
       <c r="N70" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>41948</v>
       </c>
@@ -3786,7 +3780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>41949</v>
       </c>
@@ -3827,7 +3821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>41949</v>
       </c>
@@ -3868,7 +3862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>41949</v>
       </c>
@@ -3909,10 +3903,10 @@
         <v>9</v>
       </c>
       <c r="N74" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>41949</v>
       </c>
@@ -3953,10 +3947,10 @@
         <v>14</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>41950</v>
       </c>
@@ -3997,10 +3991,10 @@
         <v>9</v>
       </c>
       <c r="N76" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>41950</v>
       </c>
@@ -4008,7 +4002,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D77">
         <v>131</v>
@@ -4041,10 +4035,10 @@
         <v>11</v>
       </c>
       <c r="N77" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>41950</v>
       </c>
@@ -4085,10 +4079,10 @@
         <v>9</v>
       </c>
       <c r="N78" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>41950</v>
       </c>
@@ -4096,7 +4090,7 @@
         <v>0.6875</v>
       </c>
       <c r="C79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D79">
         <v>133</v>
@@ -4129,10 +4123,10 @@
         <v>11</v>
       </c>
       <c r="N79" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>41950</v>
       </c>
@@ -4140,7 +4134,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D80">
         <v>135</v>
@@ -4173,10 +4167,10 @@
         <v>9</v>
       </c>
       <c r="N80" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>41950</v>
       </c>
@@ -4217,10 +4211,10 @@
         <v>11</v>
       </c>
       <c r="N81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>41952</v>
       </c>
@@ -4228,7 +4222,7 @@
         <v>0.5</v>
       </c>
       <c r="C82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D82">
         <v>137</v>
@@ -4261,10 +4255,10 @@
         <v>9</v>
       </c>
       <c r="N82" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>41952</v>
       </c>
@@ -4272,7 +4266,7 @@
         <v>0.5</v>
       </c>
       <c r="C83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D83">
         <v>136</v>
@@ -4305,10 +4299,10 @@
         <v>9</v>
       </c>
       <c r="N83" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>41952</v>
       </c>
@@ -4316,7 +4310,7 @@
         <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D84">
         <v>138</v>
@@ -4349,10 +4343,10 @@
         <v>14</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>41954</v>
       </c>
@@ -4393,10 +4387,10 @@
         <v>9</v>
       </c>
       <c r="N85" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>41954</v>
       </c>
@@ -4437,10 +4431,10 @@
         <v>11</v>
       </c>
       <c r="N86" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>41954</v>
       </c>
@@ -4481,7 +4475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>41954</v>
       </c>
@@ -4522,7 +4516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>41955</v>
       </c>
@@ -4530,7 +4524,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D89">
         <v>143</v>
@@ -4563,10 +4557,10 @@
         <v>11</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>41955</v>
       </c>
@@ -4607,10 +4601,10 @@
         <v>9</v>
       </c>
       <c r="N90" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>41955</v>
       </c>
@@ -4651,7 +4645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>41956</v>
       </c>
@@ -4692,7 +4686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>41956</v>
       </c>
@@ -4733,7 +4727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>41956</v>
       </c>
@@ -4774,10 +4768,10 @@
         <v>11</v>
       </c>
       <c r="N94" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>41956</v>
       </c>
@@ -4785,7 +4779,7 @@
         <v>0.71875</v>
       </c>
       <c r="C95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D95">
         <v>149</v>
@@ -4818,10 +4812,10 @@
         <v>9</v>
       </c>
       <c r="N95" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>41956</v>
       </c>
@@ -4862,10 +4856,10 @@
         <v>9</v>
       </c>
       <c r="N96" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>41959</v>
       </c>
@@ -4873,34 +4867,35 @@
         <v>0.5</v>
       </c>
       <c r="C97" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N97"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw-data-prep/raw_data/Note_sheet_AM.xlsx
+++ b/raw-data-prep/raw_data/Note_sheet_AM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -329,7 +329,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,7 +422,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
@@ -434,6 +434,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -446,6 +449,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -494,7 +500,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -529,7 +535,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -742,7 +748,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,16 +803,16 @@
     </row>
     <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>41550</v>
+        <v>41541</v>
       </c>
       <c r="B2" s="10">
-        <v>0.72916666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -818,60 +824,63 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>314</v>
+        <v>508</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J2">
-        <v>811</v>
+        <v>1650</v>
       </c>
       <c r="K2">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
+      <c r="M2" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="N2" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>41547</v>
+        <v>41541</v>
       </c>
       <c r="B3" s="10">
-        <v>0.71875</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>462</v>
+        <v>193</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>2224</v>
+        <v>896</v>
       </c>
       <c r="K3">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="L3">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s">
         <v>9</v>
@@ -882,142 +891,139 @@
         <v>41541</v>
       </c>
       <c r="B4" s="10">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>508</v>
+        <v>156</v>
       </c>
       <c r="I4">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>1650</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>12</v>
+      <c r="M4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>41545</v>
+        <v>41542</v>
       </c>
       <c r="B5" s="10">
-        <v>0.58333333333333337</v>
+        <v>0.71875</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>485</v>
+      </c>
+      <c r="I5">
         <v>19</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>427</v>
-      </c>
-      <c r="I5">
-        <v>14</v>
-      </c>
       <c r="J5">
-        <v>1878</v>
+        <v>1134</v>
       </c>
       <c r="K5">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>15</v>
+      <c r="M5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>41550</v>
+        <v>41542</v>
       </c>
       <c r="B6" s="10">
-        <v>0.77083333333333337</v>
+        <v>0.71875</v>
       </c>
       <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>39</v>
-      </c>
       <c r="E6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>458</v>
+        <v>286</v>
       </c>
       <c r="I6">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>787</v>
+        <v>1444</v>
       </c>
       <c r="K6">
-        <v>313</v>
+        <v>101</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>41545</v>
-      </c>
-      <c r="B7" s="10">
-        <v>0.50208333333333333</v>
+        <v>41543</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.64583333333333337</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1029,189 +1035,182 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c r="I7">
         <v>22</v>
       </c>
       <c r="J7">
-        <v>425</v>
+        <v>87</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>17</v>
+      <c r="M7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>41541</v>
+        <v>41543</v>
       </c>
       <c r="B8" s="10">
-        <v>0.70833333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>193</v>
+        <v>368</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J8">
-        <v>896</v>
+        <v>1267</v>
       </c>
       <c r="K8">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="L8">
-        <v>95</v>
-      </c>
-      <c r="M8" t="s">
-        <v>9</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>41541</v>
-      </c>
-      <c r="B9" s="10">
-        <v>0.75</v>
+        <v>41543</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>156</v>
+        <v>366</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J9">
-        <v>46</v>
+        <v>1251</v>
       </c>
       <c r="K9">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>9</v>
+      <c r="M9" s="11"/>
+      <c r="N9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>41542</v>
+        <v>41543</v>
       </c>
       <c r="B10" s="10">
-        <v>0.71875</v>
+        <v>0.6875</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>485</v>
+        <v>229</v>
       </c>
       <c r="I10">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J10">
-        <v>1134</v>
+        <v>730</v>
       </c>
       <c r="K10">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" t="s">
-        <v>19</v>
+        <v>80</v>
+      </c>
+      <c r="M10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>41542</v>
+        <v>41543</v>
       </c>
       <c r="B11" s="10">
-        <v>0.71875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J11">
-        <v>1444</v>
+        <v>1573</v>
       </c>
       <c r="K11">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M11" t="s">
         <v>9</v>
@@ -1221,523 +1220,536 @@
       <c r="A12" s="3">
         <v>41543</v>
       </c>
-      <c r="B12" t="s">
-        <v>20</v>
+      <c r="B12" s="10">
+        <v>0.72916666666666663</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>366</v>
+        <v>283</v>
       </c>
       <c r="I12">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J12">
-        <v>1251</v>
+        <v>1220</v>
       </c>
       <c r="K12">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s">
-        <v>21</v>
+        <v>91</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>41543</v>
+        <v>41544</v>
       </c>
       <c r="B13" s="10">
-        <v>0.72916666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="I13">
+        <v>13</v>
+      </c>
+      <c r="J13">
+        <v>380</v>
+      </c>
+      <c r="K13">
+        <v>215</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J13">
-        <v>1573</v>
-      </c>
-      <c r="K13">
-        <v>120</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>9</v>
+      <c r="N13" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>41543</v>
-      </c>
-      <c r="B14" s="6">
-        <v>0.64583333333333337</v>
+        <v>41544</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.58333333333333337</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>183</v>
+      </c>
+      <c r="I14">
         <v>3</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>96</v>
-      </c>
-      <c r="I14">
-        <v>22</v>
-      </c>
       <c r="J14">
-        <v>87</v>
+        <v>712</v>
       </c>
       <c r="K14">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>9</v>
+        <v>57</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>41543</v>
+        <v>41545</v>
       </c>
       <c r="B15" s="10">
-        <v>0.64583333333333337</v>
+        <v>0.50208333333333333</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>368</v>
+        <v>202</v>
       </c>
       <c r="I15">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J15">
-        <v>1267</v>
+        <v>425</v>
       </c>
       <c r="K15">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="L15">
-        <v>60</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>41543</v>
+        <v>41545</v>
       </c>
       <c r="B16" s="10">
-        <v>0.6875</v>
+        <v>0.5</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="I16">
         <v>6</v>
       </c>
       <c r="J16">
-        <v>730</v>
+        <v>911</v>
       </c>
       <c r="K16">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="L16">
-        <v>80</v>
-      </c>
-      <c r="M16" t="s">
-        <v>9</v>
+        <v>134</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>41543</v>
+      <c r="A17" t="s">
+        <v>26</v>
       </c>
       <c r="B17" s="10">
-        <v>0.72916666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>283</v>
+        <v>354</v>
       </c>
       <c r="I17">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J17">
-        <v>1220</v>
+        <v>1264</v>
       </c>
       <c r="K17">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="L17">
-        <v>91</v>
-      </c>
-      <c r="M17" t="s">
-        <v>9</v>
+        <v>73</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>41544</v>
+        <v>41545</v>
       </c>
       <c r="B18" s="10">
         <v>0.58333333333333337</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D18">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>427</v>
+      </c>
+      <c r="I18">
         <v>14</v>
       </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18">
-        <v>183</v>
-      </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
       <c r="J18">
-        <v>712</v>
+        <v>1878</v>
       </c>
       <c r="K18">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="L18">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>41544</v>
+        <v>41545</v>
       </c>
       <c r="B19" s="10">
         <v>0.58333333333333337</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>332</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19">
+        <v>1405</v>
+      </c>
+      <c r="K19">
+        <v>107</v>
+      </c>
+      <c r="L19">
+        <v>65</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>41546</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>393</v>
+      </c>
+      <c r="I20">
         <v>13</v>
       </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>375</v>
-      </c>
-      <c r="I19">
-        <v>13</v>
-      </c>
-      <c r="J19">
-        <v>380</v>
-      </c>
-      <c r="K19">
-        <v>215</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="10">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20">
-        <v>18</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>354</v>
-      </c>
-      <c r="I20">
-        <v>11</v>
-      </c>
       <c r="J20">
-        <v>1264</v>
+        <v>397</v>
       </c>
       <c r="K20">
-        <v>103</v>
+        <v>282</v>
       </c>
       <c r="L20">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N20" t="s">
-        <v>28</v>
+      <c r="N20" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>41545</v>
+        <v>41546</v>
       </c>
       <c r="B21" s="10">
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="I21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J21">
-        <v>911</v>
+        <v>1005</v>
       </c>
       <c r="K21">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="L21">
-        <v>134</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="M21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>41545</v>
+        <v>41547</v>
       </c>
       <c r="B22" s="10">
-        <v>0.58333333333333337</v>
+        <v>0.71875</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>332</v>
+        <v>465</v>
       </c>
       <c r="I22">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J22">
-        <v>1405</v>
+        <v>2524</v>
       </c>
       <c r="K22">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="L22">
-        <v>65</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>41546</v>
+        <v>41547</v>
       </c>
       <c r="B23" s="10">
-        <v>0.54166666666666663</v>
+        <v>0.71875</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>235</v>
+        <v>462</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J23">
-        <v>1005</v>
+        <v>2224</v>
       </c>
       <c r="K23">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L23">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="M23" t="s">
         <v>9</v>
-      </c>
-      <c r="N23" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>41546</v>
-      </c>
-      <c r="B24" s="10">
-        <v>0.54166666666666663</v>
+        <v>41548</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.75</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -1749,104 +1761,101 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>393</v>
+        <v>548</v>
       </c>
       <c r="I24">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J24">
-        <v>397</v>
+        <v>1718</v>
       </c>
       <c r="K24">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>33</v>
+      <c r="M24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>41547</v>
+        <v>41548</v>
       </c>
       <c r="B25" s="10">
-        <v>0.71875</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>351</v>
+      </c>
+      <c r="I25">
+        <v>11</v>
+      </c>
+      <c r="J25">
+        <v>1722</v>
+      </c>
+      <c r="K25">
+        <v>85</v>
+      </c>
+      <c r="L25">
+        <v>55</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
         <v>3</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>465</v>
-      </c>
-      <c r="I25">
-        <v>16</v>
-      </c>
-      <c r="J25">
-        <v>2524</v>
-      </c>
-      <c r="K25">
-        <v>162</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25" t="s">
-        <v>9</v>
-      </c>
-      <c r="N25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>41548</v>
-      </c>
-      <c r="B26" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>4</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>548</v>
+        <v>514</v>
       </c>
       <c r="I26">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J26">
-        <v>1718</v>
+        <v>478</v>
       </c>
       <c r="K26">
-        <v>236</v>
+        <v>327</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -1859,129 +1868,126 @@
       <c r="A27" s="3">
         <v>41548</v>
       </c>
-      <c r="B27" s="10">
-        <v>0.70833333333333337</v>
+      <c r="B27" s="6">
+        <v>0.63541666666666663</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="I27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J27">
-        <v>1722</v>
+        <v>1700</v>
       </c>
       <c r="K27">
         <v>85</v>
       </c>
       <c r="L27">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>11</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="3">
+        <v>41549</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>29</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>451</v>
+      </c>
+      <c r="I28">
+        <v>15</v>
+      </c>
+      <c r="J28">
+        <v>1600</v>
+      </c>
+      <c r="K28">
+        <v>165</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>20</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
         <v>3</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>514</v>
-      </c>
-      <c r="I28">
-        <v>17</v>
-      </c>
-      <c r="J28">
-        <v>478</v>
-      </c>
-      <c r="K28">
-        <v>327</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>41548</v>
-      </c>
-      <c r="B29" s="6">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29">
-        <v>28</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
       <c r="H29">
-        <v>381</v>
+        <v>318</v>
       </c>
       <c r="I29">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J29">
-        <v>1700</v>
+        <v>1221</v>
       </c>
       <c r="K29">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="L29">
-        <v>74</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>37</v>
+        <v>113</v>
+      </c>
+      <c r="M29" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2030,163 +2036,161 @@
         <v>41549</v>
       </c>
       <c r="B31" s="6">
-        <v>0.67708333333333337</v>
+        <v>0.71875</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>281</v>
+      </c>
+      <c r="I31">
+        <v>7</v>
+      </c>
+      <c r="J31">
+        <v>989</v>
+      </c>
+      <c r="K31">
+        <v>137</v>
+      </c>
+      <c r="L31">
+        <v>90</v>
+      </c>
+      <c r="M31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>41550</v>
+      </c>
+      <c r="B32" s="10">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>33</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
         <v>1</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>451</v>
-      </c>
-      <c r="I31">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>464</v>
+      </c>
+      <c r="I32">
         <v>15</v>
       </c>
-      <c r="J31">
-        <v>1600</v>
-      </c>
-      <c r="K31">
-        <v>165</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32">
-        <v>30</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
-      <c r="H32">
-        <v>318</v>
-      </c>
-      <c r="I32">
-        <v>5</v>
-      </c>
       <c r="J32">
-        <v>1221</v>
+        <v>2065</v>
       </c>
       <c r="K32">
         <v>72</v>
       </c>
       <c r="L32">
-        <v>113</v>
-      </c>
-      <c r="M32" t="s">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M32" s="11"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>41549</v>
-      </c>
-      <c r="B33" s="6">
-        <v>0.71875</v>
+        <v>41550</v>
+      </c>
+      <c r="B33" s="10">
+        <v>0.64583333333333337</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="I33">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J33">
-        <v>989</v>
+        <v>1182</v>
       </c>
       <c r="K33">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="L33">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="M33" t="s">
         <v>9</v>
-      </c>
-      <c r="N33" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>41550</v>
       </c>
-      <c r="B34" s="10">
-        <v>0.64583333333333337</v>
+      <c r="B34" s="6">
+        <v>0.6875</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
       </c>
       <c r="D34">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34">
-        <v>336</v>
+        <v>270</v>
       </c>
       <c r="I34">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J34">
-        <v>1182</v>
+        <v>912</v>
       </c>
       <c r="K34">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="L34">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="M34" t="s">
         <v>9</v>
@@ -2197,13 +2201,13 @@
         <v>41550</v>
       </c>
       <c r="B35" s="10">
-        <v>0.64583333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
       </c>
       <c r="D35">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -2215,58 +2219,61 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>464</v>
+        <v>314</v>
       </c>
       <c r="I35">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J35">
-        <v>2065</v>
+        <v>811</v>
       </c>
       <c r="K35">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35" s="2"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>41550</v>
       </c>
       <c r="B36" s="6">
-        <v>0.6875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C36" t="s">
         <v>23</v>
       </c>
       <c r="D36">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J36">
-        <v>912</v>
+        <v>1261</v>
       </c>
       <c r="K36">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="L36">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M36" t="s">
         <v>9</v>
@@ -2276,41 +2283,41 @@
       <c r="A37" s="3">
         <v>41550</v>
       </c>
-      <c r="B37" s="6">
-        <v>0.72916666666666663</v>
+      <c r="B37" s="10">
+        <v>0.77083333333333337</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>300</v>
+        <v>458</v>
       </c>
       <c r="I37">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J37">
-        <v>1261</v>
+        <v>787</v>
       </c>
       <c r="K37">
-        <v>102</v>
+        <v>313</v>
       </c>
       <c r="L37">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2482,91 +2489,91 @@
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+      <c r="A42" s="3">
         <v>41936</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42">
+        <v>95</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>337</v>
+      </c>
+      <c r="I42">
+        <v>11</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>334</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>9</v>
+      </c>
+      <c r="N42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>41936</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>23</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>96</v>
       </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42">
-        <v>4</v>
-      </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-      <c r="H42">
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
         <v>262</v>
       </c>
-      <c r="I42">
+      <c r="I43">
         <v>6</v>
       </c>
-      <c r="J42">
+      <c r="J43">
         <v>1017</v>
       </c>
-      <c r="K42">
+      <c r="K43">
         <v>96</v>
       </c>
-      <c r="L42">
+      <c r="L43">
         <v>73</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="N43" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>41936</v>
-      </c>
-      <c r="B43" s="6">
-        <v>0.6875</v>
-      </c>
-      <c r="C43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43">
-        <v>95</v>
-      </c>
-      <c r="E43">
-        <v>4</v>
-      </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>337</v>
-      </c>
-      <c r="I43">
-        <v>11</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>334</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43" t="s">
-        <v>9</v>
-      </c>
-      <c r="N43" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -2574,43 +2581,43 @@
         <v>41936</v>
       </c>
       <c r="B44" s="6">
-        <v>0.73611111111111116</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D44">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J44">
-        <v>1103</v>
+        <v>659</v>
       </c>
       <c r="K44">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="L44">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="M44" t="s">
         <v>9</v>
       </c>
       <c r="N44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -2618,43 +2625,43 @@
         <v>41936</v>
       </c>
       <c r="B45" s="6">
-        <v>0.72916666666666663</v>
+        <v>0.73611111111111116</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D45">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H45">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="I45">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J45">
-        <v>659</v>
+        <v>1103</v>
       </c>
       <c r="K45">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="M45" t="s">
         <v>9</v>
       </c>
       <c r="N45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -2749,167 +2756,167 @@
       <c r="A48" s="3">
         <v>41938</v>
       </c>
-      <c r="B48" t="s">
-        <v>20</v>
+      <c r="B48" s="6">
+        <v>0.58333333333333337</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D48">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>268</v>
+        <v>484</v>
       </c>
       <c r="I48">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J48">
-        <v>936</v>
+        <v>963</v>
       </c>
       <c r="K48">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="L48">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="M48" t="s">
         <v>9</v>
       </c>
       <c r="N48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>41938</v>
       </c>
-      <c r="B49" s="6">
-        <v>0.58333333333333337</v>
+      <c r="B49" t="s">
+        <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D49">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H49">
-        <v>484</v>
+        <v>268</v>
       </c>
       <c r="I49">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J49">
-        <v>963</v>
+        <v>936</v>
       </c>
       <c r="K49">
-        <v>248</v>
+        <v>30</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="M49" t="s">
         <v>9</v>
       </c>
       <c r="N49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>51</v>
+      <c r="A50" s="3">
+        <v>41940</v>
       </c>
       <c r="B50" s="6">
         <v>0.70833333333333337</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D50">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>207</v>
+        <v>353</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J50">
-        <v>641</v>
+        <v>578</v>
       </c>
       <c r="K50">
-        <v>63</v>
+        <v>252</v>
       </c>
       <c r="L50">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>41940</v>
+      <c r="A51" t="s">
+        <v>51</v>
       </c>
       <c r="B51" s="6">
         <v>0.70833333333333337</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D51">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>353</v>
+        <v>207</v>
       </c>
       <c r="I51">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="J51">
-        <v>578</v>
+        <v>641</v>
       </c>
       <c r="K51">
-        <v>252</v>
+        <v>63</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M51" t="s">
         <v>9</v>
@@ -3442,40 +3449,40 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C64" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D64">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H64">
-        <v>453</v>
+        <v>214</v>
       </c>
       <c r="I64">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J64">
-        <v>1530</v>
+        <v>1000</v>
       </c>
       <c r="K64">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>14</v>
+        <v>68</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="N64" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -3486,40 +3493,40 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D65">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>214</v>
+        <v>453</v>
       </c>
       <c r="I65">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J65">
-        <v>1000</v>
+        <v>1530</v>
       </c>
       <c r="K65">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="L65">
-        <v>68</v>
-      </c>
-      <c r="M65" s="8" t="s">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="N65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -3530,40 +3537,40 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="C66" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" s="9">
-        <v>121</v>
+        <v>23</v>
+      </c>
+      <c r="D66">
+        <v>120</v>
       </c>
       <c r="E66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H66">
-        <v>479</v>
+        <v>280</v>
       </c>
       <c r="I66">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J66">
-        <v>683</v>
+        <v>925</v>
       </c>
       <c r="K66">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="M66" t="s">
         <v>9</v>
       </c>
       <c r="N66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -3574,40 +3581,40 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67">
-        <v>120</v>
+        <v>42</v>
+      </c>
+      <c r="D67" s="9">
+        <v>121</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>280</v>
+        <v>479</v>
       </c>
       <c r="I67">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J67">
-        <v>925</v>
+        <v>683</v>
       </c>
       <c r="K67">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="L67">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="M67" t="s">
         <v>9</v>
       </c>
       <c r="N67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -4134,40 +4141,40 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C80" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D80">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c r="I80">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J80">
-        <v>190</v>
+        <v>973</v>
       </c>
       <c r="K80">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80" t="s">
-        <v>9</v>
+        <v>74</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="N80" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -4178,40 +4185,40 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D81">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="I81">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J81">
-        <v>973</v>
+        <v>190</v>
       </c>
       <c r="K81">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="L81">
-        <v>74</v>
-      </c>
-      <c r="M81" s="8" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="M81" t="s">
+        <v>9</v>
       </c>
       <c r="N81" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -4222,40 +4229,40 @@
         <v>0.5</v>
       </c>
       <c r="C82" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D82">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H82">
-        <v>421</v>
+        <v>272</v>
       </c>
       <c r="I82">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J82">
-        <v>791</v>
+        <v>1201</v>
       </c>
       <c r="K82">
-        <v>239</v>
+        <v>63</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="M82" t="s">
         <v>9</v>
       </c>
       <c r="N82" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -4266,40 +4273,40 @@
         <v>0.5</v>
       </c>
       <c r="C83" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D83">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>272</v>
+        <v>421</v>
       </c>
       <c r="I83">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J83">
-        <v>1201</v>
+        <v>791</v>
       </c>
       <c r="K83">
-        <v>63</v>
+        <v>239</v>
       </c>
       <c r="L83">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="M83" t="s">
         <v>9</v>
       </c>
       <c r="N83" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -4871,7 +4878,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N97"/>
+  <autoFilter ref="A1:N97">
+    <sortState ref="A2:N97">
+      <sortCondition ref="D1:D97"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/raw-data-prep/raw_data/Note_sheet_AM.xlsx
+++ b/raw-data-prep/raw_data/Note_sheet_AM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -302,34 +302,34 @@
     <t>Study about effect of distraction on video game playing. Anything suspicious: maybe we were writing the essay responses to distract the more. laughed when gave distraction assignment. Said essay review was too much. A normal person isn't that mean.</t>
   </si>
   <si>
-    <t>Game 2</t>
-  </si>
-  <si>
-    <t>Game 4</t>
-  </si>
-  <si>
-    <t>Game 6</t>
-  </si>
-  <si>
-    <t>Good Session</t>
-  </si>
-  <si>
     <t>Notes_t</t>
   </si>
   <si>
-    <t>Game 1</t>
-  </si>
-  <si>
-    <t>Game 3</t>
-  </si>
-  <si>
-    <t>Game 5</t>
+    <t>Game.1</t>
+  </si>
+  <si>
+    <t>Game.2</t>
+  </si>
+  <si>
+    <t>Game.3</t>
+  </si>
+  <si>
+    <t>Game.4</t>
+  </si>
+  <si>
+    <t>Game.5</t>
+  </si>
+  <si>
+    <t>Game.6</t>
+  </si>
+  <si>
+    <t>goodSession</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -500,7 +500,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -535,7 +535,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -748,7 +748,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8:M8"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,28 +777,28 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" t="s">
         <v>91</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" t="s">
         <v>86</v>
-      </c>
-      <c r="I1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/raw-data-prep/raw_data/Note_sheet_AM.xlsx
+++ b/raw-data-prep/raw_data/Note_sheet_AM.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="170" windowWidth="14810" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="91">
   <si>
     <t>Subject</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Participant a little weird; Stood up to ask about how to move on in game; was opening up drawers when I came into room; Results would've been different, no challenge to game- kind of boring</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Seems okay</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
   </si>
   <si>
     <t>Not sure how much of essay prompt was understood; did seem to understand the process of judging essays was fake- learned about similar studies previously; English as a second language - I allowed him to use phone to translate</t>
-  </si>
-  <si>
-    <t>9/?</t>
   </si>
   <si>
     <t>JH</t>
@@ -197,9 +191,6 @@
     <t>Thought it was about exactly what we said it was about</t>
   </si>
   <si>
-    <t xml:space="preserve"> 10/28</t>
-  </si>
-  <si>
     <t>Thought we were interested in seing how he responded to his partner's feedback but he believed he was paired with the other participant</t>
   </si>
   <si>
@@ -329,7 +320,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,21 +416,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -500,7 +492,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -535,7 +527,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -747,17 +739,18 @@
   <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:M1"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -777,35 +770,35 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" t="s">
         <v>87</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>88</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>89</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>90</v>
       </c>
-      <c r="K1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" t="s">
-        <v>93</v>
-      </c>
       <c r="N1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5">
         <v>41541</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>0.70833333333333337</v>
       </c>
       <c r="C2" t="s">
@@ -838,18 +831,18 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
         <v>41541</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>0.70833333333333337</v>
       </c>
       <c r="C3" t="s">
@@ -886,11 +879,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
         <v>41541</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>0.75</v>
       </c>
       <c r="C4" t="s">
@@ -927,11 +920,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
         <v>41542</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>0.71875</v>
       </c>
       <c r="C5" t="s">
@@ -964,18 +957,18 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
         <v>41542</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>0.71875</v>
       </c>
       <c r="C6" t="s">
@@ -1012,15 +1005,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
         <v>41543</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="11">
         <v>0.64583333333333337</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -1053,11 +1046,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
         <v>41543</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="11">
         <v>0.64583333333333337</v>
       </c>
       <c r="C8" t="s">
@@ -1090,15 +1083,13 @@
       <c r="L8">
         <v>60</v>
       </c>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
         <v>41543</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
+      <c r="B9" s="11"/>
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -1129,20 +1120,20 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" s="11"/>
+      <c r="M9" s="8"/>
       <c r="N9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
         <v>41543</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="11">
         <v>0.6875</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -1175,11 +1166,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
         <v>41543</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="11">
         <v>0.72916666666666663</v>
       </c>
       <c r="C11" t="s">
@@ -1216,15 +1207,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+    <row r="12" spans="1:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5">
         <v>41543</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="11">
         <v>0.72916666666666663</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -1253,15 +1244,15 @@
       <c r="L12">
         <v>91</v>
       </c>
-      <c r="M12" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="M12" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
         <v>41544</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="11">
         <v>0.58333333333333337</v>
       </c>
       <c r="C13" t="s">
@@ -1298,18 +1289,18 @@
         <v>14</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5">
         <v>41544</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="11">
         <v>0.58333333333333337</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>14</v>
@@ -1342,14 +1333,14 @@
         <v>14</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5">
         <v>41545</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="11">
         <v>0.50208333333333333</v>
       </c>
       <c r="C15" t="s">
@@ -1382,22 +1373,22 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" s="13" t="s">
+      <c r="M15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
         <v>41545</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="11">
         <v>0.5</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16">
         <v>16</v>
@@ -1430,18 +1421,16 @@
         <v>14</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="11">
         <v>0.58333333333333337</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <v>18</v>
@@ -1470,18 +1459,18 @@
       <c r="L17">
         <v>73</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
         <v>41545</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="11">
         <v>0.58333333333333337</v>
       </c>
       <c r="C18" t="s">
@@ -1521,15 +1510,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
         <v>41545</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="11">
         <v>0.58333333333333337</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19">
         <v>20</v>
@@ -1558,22 +1547,22 @@
       <c r="L19">
         <v>65</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>41546</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C20" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>41546</v>
-      </c>
-      <c r="B20" s="10">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
       </c>
       <c r="D20">
         <v>21</v>
@@ -1602,22 +1591,22 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
         <v>41546</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="11">
         <v>0.54166666666666663</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>22</v>
@@ -1650,14 +1639,14 @@
         <v>9</v>
       </c>
       <c r="N21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
         <v>41547</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="11">
         <v>0.71875</v>
       </c>
       <c r="C22" t="s">
@@ -1694,14 +1683,14 @@
         <v>9</v>
       </c>
       <c r="N22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
         <v>41547</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="11">
         <v>0.71875</v>
       </c>
       <c r="C23" t="s">
@@ -1738,11 +1727,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
         <v>41548</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="11">
         <v>0.75</v>
       </c>
       <c r="C24" t="s">
@@ -1779,11 +1768,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
         <v>41548</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="11">
         <v>0.70833333333333337</v>
       </c>
       <c r="C25" t="s">
@@ -1816,22 +1805,18 @@
       <c r="L25">
         <v>55</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="M25" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26">
         <v>27</v>
@@ -1864,11 +1849,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
         <v>41548</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="11">
         <v>0.63541666666666663</v>
       </c>
       <c r="C27" t="s">
@@ -1901,18 +1886,18 @@
       <c r="L27">
         <v>74</v>
       </c>
-      <c r="M27" s="8" t="s">
+      <c r="M27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
         <v>41549</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="11">
         <v>0.67708333333333337</v>
       </c>
       <c r="C28" t="s">
@@ -1949,13 +1934,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>20</v>
-      </c>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="5"/>
+      <c r="B29" s="11"/>
       <c r="C29" t="s">
         <v>8</v>
       </c>
@@ -1990,11 +1971,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
         <v>41549</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="11">
         <v>0.67708333333333337</v>
       </c>
       <c r="C30" t="s">
@@ -2031,11 +2012,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
         <v>41549</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="11">
         <v>0.71875</v>
       </c>
       <c r="C31" t="s">
@@ -2072,14 +2053,14 @@
         <v>9</v>
       </c>
       <c r="N31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
         <v>41550</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="11">
         <v>0.64583333333333337</v>
       </c>
       <c r="C32" t="s">
@@ -2112,17 +2093,17 @@
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32" s="11"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
         <v>41550</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="11">
         <v>0.64583333333333337</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33">
         <v>34</v>
@@ -2155,15 +2136,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="5">
         <v>41550</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="11">
         <v>0.6875</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34">
         <v>36</v>
@@ -2196,11 +2177,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+    <row r="35" spans="1:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="5">
         <v>41550</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="11">
         <v>0.72916666666666663</v>
       </c>
       <c r="C35" t="s">
@@ -2233,20 +2214,20 @@
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35" s="12"/>
-      <c r="N35" s="5" t="s">
+      <c r="M35" s="9"/>
+      <c r="N35" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="36" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
         <v>41550</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="11">
         <v>0.72916666666666663</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D36">
         <v>38</v>
@@ -2279,11 +2260,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
         <v>41550</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="11">
         <v>0.77083333333333337</v>
       </c>
       <c r="C37" t="s">
@@ -2320,15 +2301,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
         <v>41550</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="11">
         <v>0.77083333333333337</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D38">
         <v>40</v>
@@ -2361,14 +2342,14 @@
         <v>9</v>
       </c>
       <c r="N38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
         <v>41551</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="11">
         <v>0.58333333333333337</v>
       </c>
       <c r="C39" t="s">
@@ -2405,15 +2386,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="5">
         <v>41551</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="11">
         <v>0.58333333333333337</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D40">
         <v>42</v>
@@ -2446,14 +2427,14 @@
         <v>9</v>
       </c>
       <c r="N40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="5">
         <v>41551</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="11">
         <v>0.625</v>
       </c>
       <c r="C41" t="s">
@@ -2488,15 +2469,15 @@
       </c>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+    <row r="42" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
         <v>41936</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="11">
         <v>0.6875</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D42">
         <v>95</v>
@@ -2529,18 +2510,16 @@
         <v>9</v>
       </c>
       <c r="N42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
         <v>41936</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="B43" s="11"/>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D43">
         <v>96</v>
@@ -2573,18 +2552,18 @@
         <v>14</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
         <v>41936</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="11">
         <v>0.72916666666666663</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D44">
         <v>97</v>
@@ -2617,18 +2596,18 @@
         <v>9</v>
       </c>
       <c r="N44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
         <v>41936</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="11">
         <v>0.73611111111111116</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45">
         <v>98</v>
@@ -2661,18 +2640,18 @@
         <v>9</v>
       </c>
       <c r="N45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
         <v>41936</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="11">
         <v>0.77083333333333337</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D46">
         <v>99</v>
@@ -2705,14 +2684,14 @@
         <v>9</v>
       </c>
       <c r="N46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
         <v>41938</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="11">
         <v>0.54583333333333328</v>
       </c>
       <c r="C47" t="s">
@@ -2745,22 +2724,22 @@
       <c r="L47">
         <v>23</v>
       </c>
-      <c r="M47" s="8" t="s">
+      <c r="M47" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>41938</v>
+      </c>
+      <c r="B48" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C48" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>41938</v>
-      </c>
-      <c r="B48" s="6">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C48" t="s">
-        <v>49</v>
       </c>
       <c r="D48">
         <v>101</v>
@@ -2793,16 +2772,14 @@
         <v>9</v>
       </c>
       <c r="N48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
         <v>41938</v>
       </c>
-      <c r="B49" t="s">
-        <v>20</v>
-      </c>
+      <c r="B49" s="11"/>
       <c r="C49" t="s">
         <v>13</v>
       </c>
@@ -2837,14 +2814,14 @@
         <v>9</v>
       </c>
       <c r="N49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
         <v>41940</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="11">
         <v>0.70833333333333337</v>
       </c>
       <c r="C50" t="s">
@@ -2881,11 +2858,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="6">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>41940</v>
+      </c>
+      <c r="B51" s="11">
         <v>0.70833333333333337</v>
       </c>
       <c r="C51" t="s">
@@ -2922,11 +2899,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
         <v>41940</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="11">
         <v>0.75</v>
       </c>
       <c r="C52" t="s">
@@ -2963,11 +2940,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
         <v>41940</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="11">
         <v>0.75</v>
       </c>
       <c r="C53" t="s">
@@ -3004,14 +2981,14 @@
         <v>9</v>
       </c>
       <c r="N53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
         <v>41941</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="11">
         <v>0.70833333333333337</v>
       </c>
       <c r="C54" t="s">
@@ -3048,14 +3025,14 @@
         <v>9</v>
       </c>
       <c r="N54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
         <v>41941</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="11">
         <v>0.70833333333333337</v>
       </c>
       <c r="C55" t="s">
@@ -3092,14 +3069,14 @@
         <v>14</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
         <v>41941</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="11">
         <v>0.75</v>
       </c>
       <c r="C56" t="s">
@@ -3136,14 +3113,14 @@
         <v>9</v>
       </c>
       <c r="N56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
         <v>41942</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="11">
         <v>0.63541666666666663</v>
       </c>
       <c r="C57" t="s">
@@ -3180,15 +3157,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
         <v>41942</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="11">
         <v>0.63541666666666663</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D58">
         <v>111</v>
@@ -3217,18 +3194,18 @@
       <c r="L58">
         <v>0</v>
       </c>
-      <c r="M58" s="8" t="s">
+      <c r="M58" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
         <v>41942</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="11">
         <v>0.67708333333333337</v>
       </c>
       <c r="C59" t="s">
@@ -3265,15 +3242,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
         <v>41942</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="11">
         <v>0.67708333333333337</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D60">
         <v>113</v>
@@ -3306,14 +3283,14 @@
         <v>9</v>
       </c>
       <c r="N60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
         <v>41942</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="11">
         <v>0.71875</v>
       </c>
       <c r="C61" t="s">
@@ -3350,18 +3327,18 @@
         <v>9</v>
       </c>
       <c r="N61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
         <v>41942</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="11">
         <v>0.71875</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D62">
         <v>115</v>
@@ -3394,18 +3371,18 @@
         <v>9</v>
       </c>
       <c r="N62" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
         <v>41943</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="11">
         <v>0.64583333333333337</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D63">
         <v>116</v>
@@ -3438,18 +3415,18 @@
         <v>9</v>
       </c>
       <c r="N63" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
         <v>41943</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="11">
         <v>0.72916666666666663</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D64">
         <v>118</v>
@@ -3478,22 +3455,22 @@
       <c r="L64">
         <v>68</v>
       </c>
-      <c r="M64" s="8" t="s">
-        <v>62</v>
+      <c r="M64" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="N64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
         <v>41943</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="11">
         <v>0.72916666666666663</v>
       </c>
       <c r="C65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D65">
         <v>119</v>
@@ -3526,18 +3503,18 @@
         <v>14</v>
       </c>
       <c r="N65" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
         <v>41943</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="11">
         <v>0.77083333333333337</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D66">
         <v>120</v>
@@ -3570,20 +3547,20 @@
         <v>9</v>
       </c>
       <c r="N66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
         <v>41943</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="11">
         <v>0.77083333333333337</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
-      </c>
-      <c r="D67" s="9">
+        <v>40</v>
+      </c>
+      <c r="D67" s="7">
         <v>121</v>
       </c>
       <c r="E67">
@@ -3614,14 +3591,14 @@
         <v>9</v>
       </c>
       <c r="N67" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
         <v>41945</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="11">
         <v>0.5</v>
       </c>
       <c r="C68" t="s">
@@ -3658,18 +3635,18 @@
         <v>9</v>
       </c>
       <c r="N68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
         <v>41945</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="11">
         <v>0.5</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D69">
         <v>123</v>
@@ -3702,11 +3679,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
         <v>41948</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="11">
         <v>0.70833333333333337</v>
       </c>
       <c r="C70" t="s">
@@ -3743,14 +3720,14 @@
         <v>9</v>
       </c>
       <c r="N70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
         <v>41948</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="11">
         <v>0.75</v>
       </c>
       <c r="C71" t="s">
@@ -3787,11 +3764,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
         <v>41949</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="11">
         <v>0.63541666666666663</v>
       </c>
       <c r="C72" t="s">
@@ -3828,11 +3805,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
         <v>41949</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="11">
         <v>0.63541666666666663</v>
       </c>
       <c r="C73" t="s">
@@ -3869,11 +3846,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
         <v>41949</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="11">
         <v>0.67708333333333337</v>
       </c>
       <c r="C74" t="s">
@@ -3910,14 +3887,14 @@
         <v>9</v>
       </c>
       <c r="N74" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
         <v>41949</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="11">
         <v>0.71875</v>
       </c>
       <c r="C75" t="s">
@@ -3954,18 +3931,18 @@
         <v>14</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
         <v>41950</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="11">
         <v>0.64583333333333337</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D76">
         <v>130</v>
@@ -3998,18 +3975,18 @@
         <v>9</v>
       </c>
       <c r="N76" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
         <v>41950</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="11">
         <v>0.64583333333333337</v>
       </c>
       <c r="C77" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D77">
         <v>131</v>
@@ -4038,22 +4015,22 @@
       <c r="L77">
         <v>0</v>
       </c>
-      <c r="M77" s="8" t="s">
+      <c r="M77" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N77" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
         <v>41950</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="11">
         <v>0.6875</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D78">
         <v>132</v>
@@ -4086,18 +4063,18 @@
         <v>9</v>
       </c>
       <c r="N78" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
         <v>41950</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="11">
         <v>0.6875</v>
       </c>
       <c r="C79" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D79">
         <v>133</v>
@@ -4126,22 +4103,22 @@
       <c r="L79">
         <v>0</v>
       </c>
-      <c r="M79" s="8" t="s">
+      <c r="M79" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N79" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
         <v>41950</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="11">
         <v>0.72916666666666663</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D80">
         <v>134</v>
@@ -4170,22 +4147,22 @@
       <c r="L80">
         <v>74</v>
       </c>
-      <c r="M80" s="8" t="s">
+      <c r="M80" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N80" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
         <v>41950</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="11">
         <v>0.72916666666666663</v>
       </c>
       <c r="C81" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D81">
         <v>135</v>
@@ -4218,18 +4195,18 @@
         <v>9</v>
       </c>
       <c r="N81" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
         <v>41952</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="11">
         <v>0.5</v>
       </c>
       <c r="C82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D82">
         <v>136</v>
@@ -4262,18 +4239,18 @@
         <v>9</v>
       </c>
       <c r="N82" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
         <v>41952</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83" s="11">
         <v>0.5</v>
       </c>
       <c r="C83" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D83">
         <v>137</v>
@@ -4306,18 +4283,16 @@
         <v>9</v>
       </c>
       <c r="N83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
         <v>41952</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="B84" s="11"/>
       <c r="C84" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D84">
         <v>138</v>
@@ -4350,14 +4325,14 @@
         <v>14</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
         <v>41954</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85" s="11">
         <v>0.70833333333333337</v>
       </c>
       <c r="C85" t="s">
@@ -4394,14 +4369,14 @@
         <v>9</v>
       </c>
       <c r="N85" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
         <v>41954</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86" s="11">
         <v>0.70833333333333337</v>
       </c>
       <c r="C86" t="s">
@@ -4434,18 +4409,18 @@
       <c r="L86">
         <v>150</v>
       </c>
-      <c r="M86" s="8" t="s">
+      <c r="M86" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N86" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A87" s="5">
         <v>41954</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="11">
         <v>0.75</v>
       </c>
       <c r="C87" t="s">
@@ -4482,11 +4457,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
         <v>41954</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="11">
         <v>0.75</v>
       </c>
       <c r="C88" t="s">
@@ -4523,15 +4498,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
         <v>41955</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89" s="11">
         <v>0.70833333333333337</v>
       </c>
       <c r="C89" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D89">
         <v>143</v>
@@ -4560,18 +4535,18 @@
       <c r="L89">
         <v>0</v>
       </c>
-      <c r="M89" s="8" t="s">
+      <c r="M89" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
         <v>41955</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B90" s="11">
         <v>0.70833333333333337</v>
       </c>
       <c r="C90" t="s">
@@ -4608,14 +4583,14 @@
         <v>9</v>
       </c>
       <c r="N90" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
         <v>41955</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91" s="11">
         <v>0.75</v>
       </c>
       <c r="C91" t="s">
@@ -4652,11 +4627,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
         <v>41956</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92" s="11">
         <v>0.63541666666666663</v>
       </c>
       <c r="C92" t="s">
@@ -4693,11 +4668,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
         <v>41956</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93" s="11">
         <v>0.63541666666666663</v>
       </c>
       <c r="C93" t="s">
@@ -4734,11 +4709,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
         <v>41956</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94" s="11">
         <v>0.67708333333333337</v>
       </c>
       <c r="C94" t="s">
@@ -4771,22 +4746,22 @@
       <c r="L94">
         <v>65</v>
       </c>
-      <c r="M94" s="8" t="s">
+      <c r="M94" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N94" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
         <v>41956</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="11">
         <v>0.71875</v>
       </c>
       <c r="C95" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D95">
         <v>149</v>
@@ -4819,14 +4794,14 @@
         <v>9</v>
       </c>
       <c r="N95" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
         <v>41956</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96" s="11">
         <v>0.71875</v>
       </c>
       <c r="C96" t="s">
@@ -4863,18 +4838,18 @@
         <v>9</v>
       </c>
       <c r="N96" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="5">
         <v>41959</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97" s="11">
         <v>0.5</v>
       </c>
       <c r="C97" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -4894,7 +4869,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4906,7 +4881,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
